--- a/export_ntp.xlsx
+++ b/export_ntp.xlsx
@@ -10,35 +10,35 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>NOTICE TO PROCEED</t>
   </si>
   <si>
-    <t>March 18, 2020</t>
-  </si>
-  <si>
-    <t>Alexa Salvanera</t>
-  </si>
-  <si>
-    <t>Silicon Valley Computer Group Phil. Inc</t>
-  </si>
-  <si>
-    <t>2nd Floor Cyberzone Area, SM Calamba City Laguna</t>
-  </si>
-  <si>
-    <t>Dear Mr./Ms. Alexa Salvanera</t>
+    <t>March 24, 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cleopatra T. Ferrer </t>
+  </si>
+  <si>
+    <t>Marinold Grill Co.</t>
+  </si>
+  <si>
+    <t>GF Marinold Grill Bldg. Ph2, Blk 2 lot 48 Pinagsama Village Taguig City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear Mr./Ms. Cleopatra T. Ferrer </t>
   </si>
   <si>
     <t xml:space="preserve">The Purchase Order / Contract Agreement having been approved, notice is hereby given to </t>
   </si>
   <si>
-    <t xml:space="preserve">Silicon Valley Computer Group Phil. Inc that the asd for theLGMED shall commence upon receipt of the  </t>
+    <t xml:space="preserve">Marinold Grill Co. that the asd for theORD shall commence upon receipt of the  </t>
   </si>
   <si>
     <t>Notice to Proceed.</t>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>By        :           __________________________</t>
-  </si>
-  <si>
-    <t>16/35 MM Production Supply</t>
   </si>
   <si>
     <t>Date    :           __________________________</t>
@@ -145,13 +142,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -169,18 +172,6 @@
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,29 +523,29 @@
       <c r="A1" s="1"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -569,17 +560,17 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
@@ -612,41 +603,41 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C37"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/export_ntp.xlsx
+++ b/export_ntp.xlsx
@@ -15,33 +15,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>NOTICE TO PROCEED</t>
   </si>
   <si>
-    <t>March 24, 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cleopatra T. Ferrer </t>
-  </si>
-  <si>
-    <t>Marinold Grill Co.</t>
-  </si>
-  <si>
-    <t>GF Marinold Grill Bldg. Ph2, Blk 2 lot 48 Pinagsama Village Taguig City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear Mr./Ms. Cleopatra T. Ferrer </t>
+    <t>May 18, 2020</t>
+  </si>
+  <si>
+    <t>Melcheshoe Trading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melcheshoe Trading
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit 8 EVC Townhomes, 454 San Agustin 2, Dasmariñas, Cavite
+</t>
+  </si>
+  <si>
+    <t>Dear Mr./Ms. Melcheshoe Trading</t>
   </si>
   <si>
     <t xml:space="preserve">The Purchase Order / Contract Agreement having been approved, notice is hereby given to </t>
   </si>
   <si>
-    <t xml:space="preserve">Marinold Grill Co. that the asd for theORD shall commence upon receipt of the  </t>
-  </si>
-  <si>
-    <t>Notice to Proceed.</t>
+    <t xml:space="preserve">Melcheshoe Trading
+that the Procurement of Personal Protective Equipment (PPE) for all DILG RIV-A Employees (Permanent and Contract of Service) for FAD shall commence upon receipt of the Notice to Proceed. </t>
   </si>
   <si>
     <t xml:space="preserve">Upon receipt of this notice, you are responsible for performing the services under the terms and </t>
@@ -50,13 +50,7 @@
     <t>conditions of the Purchase Order / Contract Agreement.</t>
   </si>
   <si>
-    <t xml:space="preserve">Please acknowledge receipt and acceptance of this Notice by signing both copies on the space </t>
-  </si>
-  <si>
-    <t xml:space="preserve">provided below. Retain one copy and return the other to the General Services and Supply </t>
-  </si>
-  <si>
-    <t>Section, DILG IV-A.</t>
+    <t>Please acknowledge receipt and acceptance of this Notice by signing below.</t>
   </si>
   <si>
     <t>Very truly yours,</t>
@@ -65,7 +59,7 @@
     <t>NOEL R. BARTOLABAC, CESO V</t>
   </si>
   <si>
-    <t>Assistant Regional Director</t>
+    <t>Officer-in-Charge</t>
   </si>
   <si>
     <t>CONFORME:</t>
@@ -74,7 +68,11 @@
     <t>By        :           __________________________</t>
   </si>
   <si>
-    <t>Date    :           __________________________</t>
+    <t xml:space="preserve">                     16/35 MM Production Supply</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     Melcheshoe Trading
+</t>
   </si>
 </sst>
 </file>
@@ -149,9 +147,6 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -168,10 +163,13 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -187,11 +185,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6019800" cy="1381125"/>
+    <xdr:ext cx="6143625" cy="1381125"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1" name="Picture 1" descr=""/>
@@ -507,15 +505,15 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" view="pageLayout" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="true" style="1"/>
+    <col min="1" max="1" width="85.88671875" customWidth="true" style="1"/>
     <col min="2" max="2" width="8.88671875" customWidth="true" style="1"/>
   </cols>
   <sheetData>
@@ -523,29 +521,29 @@
       <c r="A1" s="1"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="D10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -560,92 +558,77 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="1" t="s">
+    <row r="35" spans="1:9">
+      <c r="A35" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="1" t="s">
+    <row r="36" spans="1:9">
+      <c r="A36" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="4" t="s">
+    <row r="37" spans="1:9">
+      <c r="C37"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="5" t="s">
+    <row r="42" spans="1:9">
+      <c r="A42" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C37"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="6" t="s">
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="4" t="s">
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="3" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A43:C43"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/export_ntp.xlsx
+++ b/export_ntp.xlsx
@@ -20,7 +20,7 @@
     <t>NOTICE TO PROCEED</t>
   </si>
   <si>
-    <t>May 18, 2020</t>
+    <t>May 14, 2020</t>
   </si>
   <si>
     <t>Melcheshoe Trading</t>
@@ -41,7 +41,7 @@
   </si>
   <si>
     <t xml:space="preserve">Melcheshoe Trading
-that the Procurement of Personal Protective Equipment (PPE) for all DILG RIV-A Employees (Permanent and Contract of Service) for FAD shall commence upon receipt of the Notice to Proceed. </t>
+that the Procurement of To Support the monitoring updates and providing technical support and assistance to the Region due to Taal Volcano eruption    for LGMED shall commence upon receipt of the Notice to Proceed. </t>
   </si>
   <si>
     <t xml:space="preserve">Upon receipt of this notice, you are responsible for performing the services under the terms and </t>
@@ -66,13 +66,13 @@
   </si>
   <si>
     <t>By        :           __________________________</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                     16/35 MM Production Supply</t>
   </si>
   <si>
     <t xml:space="preserve">                     Melcheshoe Trading
 </t>
+  </si>
+  <si>
+    <t>Date    :           __________________________</t>
   </si>
 </sst>
 </file>

--- a/export_ntp.xlsx
+++ b/export_ntp.xlsx
@@ -20,28 +20,26 @@
     <t>NOTICE TO PROCEED</t>
   </si>
   <si>
-    <t>May 14, 2020</t>
+    <t>May 21, 2020</t>
+  </si>
+  <si>
+    <t>Ma. Kristine P. Ladao</t>
   </si>
   <si>
     <t>Melcheshoe Trading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melcheshoe Trading
-</t>
   </si>
   <si>
     <t xml:space="preserve">Unit 8 EVC Townhomes, 454 San Agustin 2, Dasmariñas, Cavite
 </t>
   </si>
   <si>
-    <t>Dear Mr./Ms. Melcheshoe Trading</t>
+    <t>Dear Mr./Ms. Ma. Kristine P. Ladao</t>
   </si>
   <si>
     <t xml:space="preserve">The Purchase Order / Contract Agreement having been approved, notice is hereby given to </t>
   </si>
   <si>
-    <t xml:space="preserve">Melcheshoe Trading
-that the Procurement of To Support the monitoring updates and providing technical support and assistance to the Region due to Taal Volcano eruption    for LGMED shall commence upon receipt of the Notice to Proceed. </t>
+    <t xml:space="preserve">Melcheshoe Tradingthat the Procurement of Melcheshoe Trading shall commence upon receipt of the Notice to Proceed. </t>
   </si>
   <si>
     <t xml:space="preserve">Upon receipt of this notice, you are responsible for performing the services under the terms and </t>
@@ -68,8 +66,7 @@
     <t>By        :           __________________________</t>
   </si>
   <si>
-    <t xml:space="preserve">                     Melcheshoe Trading
-</t>
+    <t xml:space="preserve">                     Melcheshoe Trading</t>
   </si>
   <si>
     <t>Date    :           __________________________</t>

--- a/export_ntp.xlsx
+++ b/export_ntp.xlsx
@@ -20,26 +20,25 @@
     <t>NOTICE TO PROCEED</t>
   </si>
   <si>
-    <t>May 21, 2020</t>
-  </si>
-  <si>
-    <t>Ma. Kristine P. Ladao</t>
-  </si>
-  <si>
-    <t>Melcheshoe Trading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit 8 EVC Townhomes, 454 San Agustin 2, Dasmariñas, Cavite
-</t>
-  </si>
-  <si>
-    <t>Dear Mr./Ms. Ma. Kristine P. Ladao</t>
+    <t>June 03, 2020</t>
+  </si>
+  <si>
+    <t>Catherine Javier</t>
+  </si>
+  <si>
+    <t>Twis Catering Services</t>
+  </si>
+  <si>
+    <t>257 Barangay Sala City of Cabuyao Laguna</t>
+  </si>
+  <si>
+    <t>Dear Mr./Ms. Catherine Javier</t>
   </si>
   <si>
     <t xml:space="preserve">The Purchase Order / Contract Agreement having been approved, notice is hereby given to </t>
   </si>
   <si>
-    <t xml:space="preserve">Melcheshoe Tradingthat the Procurement of Melcheshoe Trading shall commence upon receipt of the Notice to Proceed. </t>
+    <t xml:space="preserve">Twis Catering Services that the Procurement of Catering Services for the RTF-ELCAC Full Council Meeting shall commence upon receipt of the Notice to Proceed. </t>
   </si>
   <si>
     <t xml:space="preserve">Upon receipt of this notice, you are responsible for performing the services under the terms and </t>
@@ -54,10 +53,10 @@
     <t>Very truly yours,</t>
   </si>
   <si>
-    <t>NOEL R. BARTOLABAC, CESO V</t>
-  </si>
-  <si>
-    <t>Officer-in-Charge</t>
+    <t>ARIEL O. IGLESIA, CESO IV</t>
+  </si>
+  <si>
+    <t>Regional Director</t>
   </si>
   <si>
     <t>CONFORME:</t>
@@ -66,7 +65,7 @@
     <t>By        :           __________________________</t>
   </si>
   <si>
-    <t xml:space="preserve">                     Melcheshoe Trading</t>
+    <t xml:space="preserve">                     Twis Catering Services</t>
   </si>
   <si>
     <t>Date    :           __________________________</t>
@@ -508,10 +507,10 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="8.85546875" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="85.88671875" customWidth="true" style="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="true" style="1"/>
+    <col min="1" max="1" width="85.85546875" customWidth="true" style="1"/>
+    <col min="2" max="2" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -567,6 +566,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
+    <row r="24" spans="1:9" hidden="true"/>
     <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
         <v>8</v>

--- a/export_ntp.xlsx
+++ b/export_ntp.xlsx
@@ -20,25 +20,28 @@
     <t>NOTICE TO PROCEED</t>
   </si>
   <si>
-    <t>June 03, 2020</t>
-  </si>
-  <si>
-    <t>Catherine Javier</t>
-  </si>
-  <si>
-    <t>Twis Catering Services</t>
-  </si>
-  <si>
-    <t>257 Barangay Sala City of Cabuyao Laguna</t>
-  </si>
-  <si>
-    <t>Dear Mr./Ms. Catherine Javier</t>
+    <t>June 24, 2020</t>
+  </si>
+  <si>
+    <t>7-08 Auto Shop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-08 Auto Shop
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57 Nueva Vizcaya St. Bago Bantay, Quezon City
+</t>
+  </si>
+  <si>
+    <t>Dear Mr./Ms. 7-08 Auto Shop</t>
   </si>
   <si>
     <t xml:space="preserve">The Purchase Order / Contract Agreement having been approved, notice is hereby given to </t>
   </si>
   <si>
-    <t xml:space="preserve">Twis Catering Services that the Procurement of Catering Services for the RTF-ELCAC Full Council Meeting shall commence upon receipt of the Notice to Proceed. </t>
+    <t xml:space="preserve">7-08 Auto Shop
+ that the Procurement of Repair and Maintenance for the For the payment of fuel and lubricants for the month of April 2020 shall commence upon receipt of the Notice to Proceed. </t>
   </si>
   <si>
     <t xml:space="preserve">Upon receipt of this notice, you are responsible for performing the services under the terms and </t>
@@ -65,7 +68,8 @@
     <t>By        :           __________________________</t>
   </si>
   <si>
-    <t xml:space="preserve">                     Twis Catering Services</t>
+    <t xml:space="preserve">                     7-08 Auto Shop
+</t>
   </si>
   <si>
     <t>Date    :           __________________________</t>

--- a/export_ntp.xlsx
+++ b/export_ntp.xlsx
@@ -20,28 +20,28 @@
     <t>NOTICE TO PROCEED</t>
   </si>
   <si>
-    <t>June 24, 2020</t>
-  </si>
-  <si>
-    <t>7-08 Auto Shop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-08 Auto Shop
+    <t>July 02, 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Innove Communications, Inc. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Innove Communications, Inc. 
 </t>
   </si>
   <si>
-    <t xml:space="preserve">57 Nueva Vizcaya St. Bago Bantay, Quezon City
+    <t xml:space="preserve">III Valero Telepark, Valero St., Salcedo Village, Marikina City
 </t>
   </si>
   <si>
-    <t>Dear Mr./Ms. 7-08 Auto Shop</t>
+    <t xml:space="preserve">Dear Mr./Ms. Innove Communications, Inc. </t>
   </si>
   <si>
     <t xml:space="preserve">The Purchase Order / Contract Agreement having been approved, notice is hereby given to </t>
   </si>
   <si>
-    <t xml:space="preserve">7-08 Auto Shop
- that the Procurement of Repair and Maintenance for the For the payment of fuel and lubricants for the month of April 2020 shall commence upon receipt of the Notice to Proceed. </t>
+    <t xml:space="preserve">Innove Communications, Inc. 
+ that the Procurement of Supplies, Materials and Devices for the For the conduct of online audio-video conferencing activities of Regional, Provincial and HUC Offices  shall commence upon receipt of the Notice to Proceed. </t>
   </si>
   <si>
     <t xml:space="preserve">Upon receipt of this notice, you are responsible for performing the services under the terms and </t>
@@ -56,7 +56,7 @@
     <t>Very truly yours,</t>
   </si>
   <si>
-    <t>ARIEL O. IGLESIA, CESO IV</t>
+    <t>ARIEL O. IGLESIA</t>
   </si>
   <si>
     <t>Regional Director</t>
@@ -68,8 +68,7 @@
     <t>By        :           __________________________</t>
   </si>
   <si>
-    <t xml:space="preserve">                     7-08 Auto Shop
-</t>
+    <t xml:space="preserve">                                    Innove Communications, Inc. </t>
   </si>
   <si>
     <t>Date    :           __________________________</t>

--- a/export_ntp.xlsx
+++ b/export_ntp.xlsx
@@ -20,28 +20,25 @@
     <t>NOTICE TO PROCEED</t>
   </si>
   <si>
-    <t>July 02, 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Innove Communications, Inc. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Innove Communications, Inc. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">III Valero Telepark, Valero St., Salcedo Village, Marikina City
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear Mr./Ms. Innove Communications, Inc. </t>
+    <t>January 23, 2020</t>
+  </si>
+  <si>
+    <t>Rowena Balahadia</t>
+  </si>
+  <si>
+    <t>Apolega Tire and Service Center</t>
+  </si>
+  <si>
+    <t>Parian, Calamba City</t>
+  </si>
+  <si>
+    <t>Dear Mr./Ms. Rowena Balahadia</t>
   </si>
   <si>
     <t xml:space="preserve">The Purchase Order / Contract Agreement having been approved, notice is hereby given to </t>
   </si>
   <si>
-    <t xml:space="preserve">Innove Communications, Inc. 
- that the Procurement of Supplies, Materials and Devices for the For the conduct of online audio-video conferencing activities of Regional, Provincial and HUC Offices  shall commence upon receipt of the Notice to Proceed. </t>
+    <t xml:space="preserve">Apolega Tire and Service Center that the Procurement of Repair and Maintenance for the For the use Isuzu D"Max CP 2057    shall commence upon receipt of the Notice to Proceed. </t>
   </si>
   <si>
     <t xml:space="preserve">Upon receipt of this notice, you are responsible for performing the services under the terms and </t>
@@ -68,7 +65,7 @@
     <t>By        :           __________________________</t>
   </si>
   <si>
-    <t xml:space="preserve">                                    Innove Communications, Inc. </t>
+    <t xml:space="preserve">                                    Rowena Balahadia</t>
   </si>
   <si>
     <t>Date    :           __________________________</t>
